--- a/results/2012_reps_by_priority(1).xlsx
+++ b/results/2012_reps_by_priority(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B9861-C3E1-8248-8A60-6F0FA1ED8DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC2987-3E95-5B43-BC5C-A62B8A892289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{498A944D-881C-2C4C-85C3-31154A405953}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="60">
   <si>
     <t>HOUSE SEAT</t>
   </si>
@@ -639,10 +639,10 @@
   <dimension ref="A1:U170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3:N170"/>
+      <selection pane="bottomRight" activeCell="V170" sqref="V170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11463,6 +11463,13 @@
         <v>0</v>
       </c>
       <c r="S169" s="5"/>
+      <c r="T169" t="s">
+        <v>12</v>
+      </c>
+      <c r="U169" t="str">
+        <f t="shared" ref="U169:U170" si="18">IF(T169&lt;&gt;J169,"DIFF", "SAME")</f>
+        <v>SAME</v>
+      </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
@@ -11520,6 +11527,13 @@
         <v>0</v>
       </c>
       <c r="S170" s="5"/>
+      <c r="T170" t="s">
+        <v>12</v>
+      </c>
+      <c r="U170" t="str">
+        <f t="shared" si="18"/>
+        <v>SAME</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/2012_reps_by_priority(1).xlsx
+++ b/results/2012_reps_by_priority(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC2987-3E95-5B43-BC5C-A62B8A892289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBFBED3-F754-0E46-BBFE-8CF5624013C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1000" windowWidth="26940" windowHeight="16440" xr2:uid="{498A944D-881C-2C4C-85C3-31154A405953}"/>
   </bookViews>
@@ -642,13 +642,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V170" sqref="V170"/>
+      <selection pane="bottomRight" activeCell="U150" sqref="A150:U150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -737,10 +736,10 @@
         <v>0.30769200000000002</v>
       </c>
       <c r="G2" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.15217700000000001</v>
       </c>
       <c r="H2" s="6">
-        <v>0.214286</v>
+        <v>0.223606</v>
       </c>
       <c r="I2" s="6">
         <v>0.1</v>
@@ -801,10 +800,10 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="6">
-        <v>0.111111</v>
+        <v>0.100075</v>
       </c>
       <c r="H3" s="6">
-        <v>0.222222</v>
+        <v>0.21118600000000001</v>
       </c>
       <c r="I3" s="6">
         <v>0.125</v>
@@ -865,10 +864,10 @@
         <v>0.77777799999999997</v>
       </c>
       <c r="G4" s="6">
-        <v>0.107143</v>
+        <v>0.100193</v>
       </c>
       <c r="H4" s="6">
-        <v>7.1429000000000006E-2</v>
+        <v>6.4478999999999995E-2</v>
       </c>
       <c r="I4" s="6">
         <v>0.1</v>
@@ -929,10 +928,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>1.7975000000000001E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>7.6923000000000005E-2</v>
+        <v>9.4897999999999996E-2</v>
       </c>
       <c r="I5" s="6">
         <v>0.1</v>
@@ -993,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>5.4873999999999999E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.5</v>
+        <v>0.44512600000000002</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -1057,10 +1056,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>6.8859000000000004E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.21171599999999999</v>
       </c>
       <c r="I7" s="6">
         <v>0.16666700000000001</v>
@@ -1121,10 +1120,10 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.25089099999999998</v>
       </c>
       <c r="H8" s="6">
-        <v>0.16666700000000001</v>
+        <v>8.4223999999999993E-2</v>
       </c>
       <c r="I8" s="6">
         <v>0.2</v>
@@ -1185,10 +1184,10 @@
         <v>0.25</v>
       </c>
       <c r="G9" s="6">
-        <v>0.17647099999999999</v>
+        <v>0.18559400000000001</v>
       </c>
       <c r="H9" s="6">
-        <v>0.235294</v>
+        <v>0.244418</v>
       </c>
       <c r="I9" s="6">
         <v>0.1</v>
@@ -1249,10 +1248,10 @@
         <v>0.272727</v>
       </c>
       <c r="G10" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.15706300000000001</v>
       </c>
       <c r="H10" s="6">
-        <v>0.25</v>
+        <v>0.240396</v>
       </c>
       <c r="I10" s="6">
         <v>0.1</v>
@@ -1313,10 +1312,10 @@
         <v>0.71698099999999998</v>
       </c>
       <c r="G11" s="6">
-        <v>0.12963</v>
+        <v>0.13225600000000001</v>
       </c>
       <c r="H11" s="6">
-        <v>0.111111</v>
+        <v>0.113737</v>
       </c>
       <c r="I11" s="6">
         <v>0.1</v>
@@ -1377,10 +1376,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G12" s="6">
-        <v>0.105263</v>
+        <v>0.13009699999999999</v>
       </c>
       <c r="H12" s="6">
-        <v>5.2631999999999998E-2</v>
+        <v>7.7465999999999993E-2</v>
       </c>
       <c r="I12" s="6">
         <v>0.1</v>
@@ -1441,10 +1440,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G13" s="6">
-        <v>8.1081E-2</v>
+        <v>7.2460999999999998E-2</v>
       </c>
       <c r="H13" s="6">
-        <v>0.108108</v>
+        <v>9.9487999999999993E-2</v>
       </c>
       <c r="I13" s="6">
         <v>0.1</v>
@@ -1505,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="6">
-        <v>0.3</v>
+        <v>0.32650099999999999</v>
       </c>
       <c r="H14" s="6">
-        <v>0.2</v>
+        <v>0.22650100000000001</v>
       </c>
       <c r="I14" s="6">
         <v>0.111111</v>
@@ -1569,10 +1568,10 @@
         <v>0.27777800000000002</v>
       </c>
       <c r="G15" s="6">
-        <v>0.21052599999999999</v>
+        <v>0.19179399999999999</v>
       </c>
       <c r="H15" s="6">
-        <v>0.263158</v>
+        <v>0.244425</v>
       </c>
       <c r="I15" s="6">
         <v>0.1</v>
@@ -1633,10 +1632,10 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="G16" s="6">
-        <v>7.1429000000000006E-2</v>
+        <v>7.7602000000000004E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>0.107143</v>
+        <v>0.113316</v>
       </c>
       <c r="I16" s="6">
         <v>0.1</v>
@@ -1697,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.157138</v>
       </c>
       <c r="H17" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.32380500000000001</v>
       </c>
       <c r="I17" s="6">
         <v>0.2</v>
@@ -1761,10 +1760,10 @@
         <v>0.222222</v>
       </c>
       <c r="G18" s="6">
-        <v>0.2</v>
+        <v>0.15806300000000001</v>
       </c>
       <c r="H18" s="6">
-        <v>0.3</v>
+        <v>0.25806299999999999</v>
       </c>
       <c r="I18" s="6">
         <v>0.111111</v>
@@ -1825,10 +1824,10 @@
         <v>0.703704</v>
       </c>
       <c r="G19" s="6">
-        <v>0.127273</v>
+        <v>0.11912499999999999</v>
       </c>
       <c r="H19" s="6">
-        <v>0.10909099999999999</v>
+        <v>0.100943</v>
       </c>
       <c r="I19" s="6">
         <v>0.1</v>
@@ -1889,10 +1888,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G20" s="6">
-        <v>0.13333300000000001</v>
+        <v>0.12731500000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>0.2</v>
+        <v>0.19398199999999999</v>
       </c>
       <c r="I20" s="6">
         <v>0.1</v>
@@ -1953,10 +1952,10 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>8.4695000000000006E-2</v>
       </c>
       <c r="H21" s="6">
-        <v>0.2</v>
+        <v>0.115305</v>
       </c>
       <c r="I21" s="6">
         <v>0.25</v>
@@ -2017,10 +2016,10 @@
         <v>0.875</v>
       </c>
       <c r="G22" s="6">
-        <v>0.222222</v>
+        <v>0.23428499999999999</v>
       </c>
       <c r="H22" s="6">
-        <v>0.111111</v>
+        <v>0.12317400000000001</v>
       </c>
       <c r="I22" s="6">
         <v>0.125</v>
@@ -2081,10 +2080,10 @@
         <v>0.75</v>
       </c>
       <c r="G23" s="6">
-        <v>6.8966E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="H23" s="6">
-        <v>3.4483E-2</v>
+        <v>3.8616999999999999E-2</v>
       </c>
       <c r="I23" s="6">
         <v>0.1</v>
@@ -2145,10 +2144,10 @@
         <v>0.55555600000000005</v>
       </c>
       <c r="G24" s="6">
-        <v>0.1</v>
+        <v>0.141905</v>
       </c>
       <c r="H24" s="6">
-        <v>0</v>
+        <v>4.1904999999999998E-2</v>
       </c>
       <c r="I24" s="6">
         <v>0.111111</v>
@@ -2209,10 +2208,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>1.356E-3</v>
       </c>
       <c r="H25" s="6">
-        <v>0.125</v>
+        <v>0.123644</v>
       </c>
       <c r="I25" s="6">
         <v>0.14285700000000001</v>
@@ -2273,10 +2272,10 @@
         <v>0.35135100000000002</v>
       </c>
       <c r="G26" s="6">
-        <v>5.2631999999999998E-2</v>
+        <v>5.5391999999999997E-2</v>
       </c>
       <c r="H26" s="6">
-        <v>7.8947000000000003E-2</v>
+        <v>8.1707000000000002E-2</v>
       </c>
       <c r="I26" s="6">
         <v>0.1</v>
@@ -2337,10 +2336,10 @@
         <v>0.690909</v>
       </c>
       <c r="G27" s="6">
-        <v>0.107143</v>
+        <v>0.106462</v>
       </c>
       <c r="H27" s="6">
-        <v>8.9286000000000004E-2</v>
+        <v>8.8605000000000003E-2</v>
       </c>
       <c r="I27" s="6">
         <v>0.1</v>
@@ -2401,10 +2400,10 @@
         <v>0.222222</v>
       </c>
       <c r="G28" s="6">
-        <v>0.1</v>
+        <v>8.9976E-2</v>
       </c>
       <c r="H28" s="6">
-        <v>0.2</v>
+        <v>0.18997600000000001</v>
       </c>
       <c r="I28" s="6">
         <v>0.111111</v>
@@ -2465,10 +2464,10 @@
         <v>0.375</v>
       </c>
       <c r="G29" s="6">
-        <v>0.111111</v>
+        <v>6.3111E-2</v>
       </c>
       <c r="H29" s="6">
-        <v>0.222222</v>
+        <v>0.17422199999999999</v>
       </c>
       <c r="I29" s="6">
         <v>0.125</v>
@@ -2529,10 +2528,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G30" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.114177</v>
       </c>
       <c r="H30" s="6">
-        <v>0.28571400000000002</v>
+        <v>0.25703399999999998</v>
       </c>
       <c r="I30" s="6">
         <v>0.16666700000000001</v>
@@ -2593,10 +2592,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G31" s="6">
-        <v>6.6667000000000004E-2</v>
+        <v>5.0309E-2</v>
       </c>
       <c r="H31" s="6">
-        <v>0.13333300000000001</v>
+        <v>0.116975</v>
       </c>
       <c r="I31" s="6">
         <v>0.1</v>
@@ -2657,10 +2656,10 @@
         <v>0.25</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>2.1174999999999999E-2</v>
       </c>
       <c r="H32" s="6">
-        <v>0.2</v>
+        <v>0.22117500000000001</v>
       </c>
       <c r="I32" s="6">
         <v>0.25</v>
@@ -2721,10 +2720,10 @@
         <v>0.39285700000000001</v>
       </c>
       <c r="G33" s="6">
-        <v>6.8966E-2</v>
+        <v>5.6666000000000001E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>0.103448</v>
+        <v>9.1148999999999994E-2</v>
       </c>
       <c r="I33" s="6">
         <v>0.1</v>
@@ -2785,10 +2784,10 @@
         <v>0.29411799999999999</v>
       </c>
       <c r="G34" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.14637900000000001</v>
       </c>
       <c r="H34" s="6">
-        <v>0.222222</v>
+        <v>0.201934</v>
       </c>
       <c r="I34" s="6">
         <v>0.1</v>
@@ -2849,10 +2848,10 @@
         <v>0.67857100000000004</v>
       </c>
       <c r="G35" s="6">
-        <v>8.7719000000000005E-2</v>
+        <v>9.4243999999999994E-2</v>
       </c>
       <c r="H35" s="6">
-        <v>7.0175000000000001E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="I35" s="6">
         <v>0.1</v>
@@ -2913,10 +2912,10 @@
         <v>0.35714299999999999</v>
       </c>
       <c r="G36" s="6">
-        <v>0.13333300000000001</v>
+        <v>0.10932</v>
       </c>
       <c r="H36" s="6">
-        <v>0.2</v>
+        <v>0.175987</v>
       </c>
       <c r="I36" s="6">
         <v>0.1</v>
@@ -2977,10 +2976,10 @@
         <v>0.631579</v>
       </c>
       <c r="G37" s="6">
-        <v>0.1</v>
+        <v>9.5887E-2</v>
       </c>
       <c r="H37" s="6">
-        <v>0.05</v>
+        <v>4.5886999999999997E-2</v>
       </c>
       <c r="I37" s="6">
         <v>0.1</v>
@@ -3041,10 +3040,10 @@
         <v>0.72413799999999995</v>
       </c>
       <c r="G38" s="6">
-        <v>3.3333000000000002E-2</v>
+        <v>4.7812E-2</v>
       </c>
       <c r="H38" s="6">
-        <v>0</v>
+        <v>1.4479000000000001E-2</v>
       </c>
       <c r="I38" s="6">
         <v>0.1</v>
@@ -3105,10 +3104,10 @@
         <v>0.368421</v>
       </c>
       <c r="G39" s="6">
-        <v>5.1282000000000001E-2</v>
+        <v>3.9197000000000003E-2</v>
       </c>
       <c r="H39" s="6">
-        <v>7.6923000000000005E-2</v>
+        <v>6.4838000000000007E-2</v>
       </c>
       <c r="I39" s="6">
         <v>0.1</v>
@@ -3169,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <v>0.2</v>
+        <v>0.17630199999999999</v>
       </c>
       <c r="H40" s="6">
-        <v>0.4</v>
+        <v>0.37630200000000003</v>
       </c>
       <c r="I40" s="6">
         <v>0.25</v>
@@ -3233,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.35679100000000002</v>
       </c>
       <c r="H41" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.19012399999999999</v>
       </c>
       <c r="I41" s="6">
         <v>0.2</v>
@@ -3297,10 +3296,10 @@
         <v>0.31578899999999999</v>
       </c>
       <c r="G42" s="6">
-        <v>0.15</v>
+        <v>0.157583</v>
       </c>
       <c r="H42" s="6">
-        <v>0.2</v>
+        <v>0.20758299999999999</v>
       </c>
       <c r="I42" s="6">
         <v>0.1</v>
@@ -3361,10 +3360,10 @@
         <v>0.538462</v>
       </c>
       <c r="G43" s="6">
-        <v>0</v>
+        <v>1.4992E-2</v>
       </c>
       <c r="H43" s="6">
-        <v>7.1429000000000006E-2</v>
+        <v>5.6437000000000001E-2</v>
       </c>
       <c r="I43" s="6">
         <v>0.1</v>
@@ -3425,10 +3424,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G44" s="6">
-        <v>8.6207000000000006E-2</v>
+        <v>8.2447999999999994E-2</v>
       </c>
       <c r="H44" s="6">
-        <v>6.8966E-2</v>
+        <v>6.5206E-2</v>
       </c>
       <c r="I44" s="6">
         <v>0.1</v>
@@ -3489,10 +3488,10 @@
         <v>0.6</v>
       </c>
       <c r="G45" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>9.1925000000000007E-2</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
+        <v>1.016E-3</v>
       </c>
       <c r="I45" s="6">
         <v>0.1</v>
@@ -3553,10 +3552,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G46" s="6">
-        <v>7.6923000000000005E-2</v>
+        <v>0.105781</v>
       </c>
       <c r="H46" s="6">
-        <v>0.15384600000000001</v>
+        <v>0.18270400000000001</v>
       </c>
       <c r="I46" s="6">
         <v>0.1</v>
@@ -3617,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <v>0</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H47" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.33863300000000002</v>
       </c>
       <c r="I47" s="6">
         <v>0.5</v>
@@ -3681,10 +3680,10 @@
         <v>0.14285700000000001</v>
       </c>
       <c r="G48" s="6">
-        <v>0.125</v>
+        <v>0.136292</v>
       </c>
       <c r="H48" s="6">
-        <v>0.25</v>
+        <v>0.26129200000000002</v>
       </c>
       <c r="I48" s="6">
         <v>0.14285700000000001</v>
@@ -3745,10 +3744,10 @@
         <v>0.41379300000000002</v>
       </c>
       <c r="G49" s="6">
-        <v>3.3333000000000002E-2</v>
+        <v>3.7125999999999999E-2</v>
       </c>
       <c r="H49" s="6">
-        <v>6.6667000000000004E-2</v>
+        <v>7.0458999999999994E-2</v>
       </c>
       <c r="I49" s="6">
         <v>0.1</v>
@@ -3809,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>0.2</v>
+        <v>0.13825299999999999</v>
       </c>
       <c r="H50" s="6">
-        <v>0.4</v>
+        <v>0.33825300000000003</v>
       </c>
       <c r="I50" s="6">
         <v>0.25</v>
@@ -3873,10 +3872,10 @@
         <v>0.4</v>
       </c>
       <c r="G51" s="6">
-        <v>6.25E-2</v>
+        <v>8.9815000000000006E-2</v>
       </c>
       <c r="H51" s="6">
-        <v>0.125</v>
+        <v>0.15231500000000001</v>
       </c>
       <c r="I51" s="6">
         <v>0.1</v>
@@ -3937,10 +3936,10 @@
         <v>0.38461499999999998</v>
       </c>
       <c r="G52" s="6">
-        <v>2.5000000000000001E-2</v>
+        <v>2.3813000000000001E-2</v>
       </c>
       <c r="H52" s="6">
-        <v>0.05</v>
+        <v>4.8813000000000002E-2</v>
       </c>
       <c r="I52" s="6">
         <v>0.1</v>
@@ -4001,10 +4000,10 @@
         <v>0.65517199999999998</v>
       </c>
       <c r="G53" s="6">
-        <v>6.7796999999999996E-2</v>
+        <v>7.1051000000000003E-2</v>
       </c>
       <c r="H53" s="6">
-        <v>5.0847000000000003E-2</v>
+        <v>5.4101999999999997E-2</v>
       </c>
       <c r="I53" s="6">
         <v>0.1</v>
@@ -4065,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="6">
-        <v>0.5</v>
+        <v>0.34174500000000002</v>
       </c>
       <c r="H54" s="6">
-        <v>0</v>
+        <v>0.15825500000000001</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -4129,10 +4128,10 @@
         <v>0.7</v>
       </c>
       <c r="G55" s="6">
-        <v>3.2258000000000002E-2</v>
+        <v>2.4156E-2</v>
       </c>
       <c r="H55" s="6">
-        <v>0</v>
+        <v>8.1019999999999998E-3</v>
       </c>
       <c r="I55" s="6">
         <v>0.1</v>
@@ -4193,10 +4192,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G56" s="6">
-        <v>0</v>
+        <v>3.3408E-2</v>
       </c>
       <c r="H56" s="6">
-        <v>0.1</v>
+        <v>0.133408</v>
       </c>
       <c r="I56" s="6">
         <v>0.111111</v>
@@ -4257,10 +4256,10 @@
         <v>0.4</v>
       </c>
       <c r="G57" s="6">
-        <v>0</v>
+        <v>1.2808999999999999E-2</v>
       </c>
       <c r="H57" s="6">
-        <v>6.25E-2</v>
+        <v>7.5309000000000001E-2</v>
       </c>
       <c r="I57" s="6">
         <v>0.1</v>
@@ -4321,10 +4320,10 @@
         <v>0.6</v>
       </c>
       <c r="G58" s="6">
-        <v>4.7619000000000002E-2</v>
+        <v>6.4935000000000007E-2</v>
       </c>
       <c r="H58" s="6">
-        <v>0</v>
+        <v>1.7315000000000001E-2</v>
       </c>
       <c r="I58" s="6">
         <v>0.1</v>
@@ -4385,10 +4384,10 @@
         <v>0.64406799999999997</v>
       </c>
       <c r="G59" s="6">
-        <v>6.6667000000000004E-2</v>
+        <v>6.0033999999999997E-2</v>
       </c>
       <c r="H59" s="6">
-        <v>0.05</v>
+        <v>4.3367000000000003E-2</v>
       </c>
       <c r="I59" s="6">
         <v>0.1</v>
@@ -4449,10 +4448,10 @@
         <v>0.625</v>
       </c>
       <c r="G60" s="6">
-        <v>0.111111</v>
+        <v>0.103418</v>
       </c>
       <c r="H60" s="6">
-        <v>0</v>
+        <v>7.6930000000000002E-3</v>
       </c>
       <c r="I60" s="6">
         <v>0.125</v>
@@ -4513,10 +4512,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G61" s="6">
-        <v>0.105263</v>
+        <v>0.111291</v>
       </c>
       <c r="H61" s="6">
-        <v>0.15789500000000001</v>
+        <v>0.16392200000000001</v>
       </c>
       <c r="I61" s="6">
         <v>0.1</v>
@@ -4577,10 +4576,10 @@
         <v>0.9</v>
       </c>
       <c r="G62" s="6">
-        <v>0.272727</v>
+        <v>0.235592</v>
       </c>
       <c r="H62" s="6">
-        <v>0.18181800000000001</v>
+        <v>0.14468300000000001</v>
       </c>
       <c r="I62" s="6">
         <v>0.1</v>
@@ -4641,10 +4640,10 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="6">
-        <v>0</v>
+        <v>9.1789999999999997E-3</v>
       </c>
       <c r="H63" s="6">
-        <v>2.4389999999999998E-2</v>
+        <v>3.3569000000000002E-2</v>
       </c>
       <c r="I63" s="6">
         <v>0.1</v>
@@ -4705,10 +4704,10 @@
         <v>0.35</v>
       </c>
       <c r="G64" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.12663099999999999</v>
       </c>
       <c r="H64" s="6">
-        <v>0.19047600000000001</v>
+        <v>0.17424999999999999</v>
       </c>
       <c r="I64" s="6">
         <v>0.1</v>
@@ -4769,10 +4768,10 @@
         <v>0.14285700000000001</v>
       </c>
       <c r="G65" s="6">
-        <v>0.125</v>
+        <v>0.166161</v>
       </c>
       <c r="H65" s="6">
-        <v>0.25</v>
+        <v>0.291161</v>
       </c>
       <c r="I65" s="6">
         <v>0.14285700000000001</v>
@@ -4833,10 +4832,10 @@
         <v>0.3</v>
       </c>
       <c r="G66" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>9.4426999999999997E-2</v>
       </c>
       <c r="H66" s="6">
-        <v>0.18181800000000001</v>
+        <v>0.185336</v>
       </c>
       <c r="I66" s="6">
         <v>0.1</v>
@@ -4897,10 +4896,10 @@
         <v>0.43333300000000002</v>
       </c>
       <c r="G67" s="6">
-        <v>3.2258000000000002E-2</v>
+        <v>1.8846000000000002E-2</v>
       </c>
       <c r="H67" s="6">
-        <v>6.4516000000000004E-2</v>
+        <v>5.1103999999999997E-2</v>
       </c>
       <c r="I67" s="6">
         <v>0.1</v>
@@ -4961,10 +4960,10 @@
         <v>0.25</v>
       </c>
       <c r="G68" s="6">
-        <v>0</v>
+        <v>6.6410999999999998E-2</v>
       </c>
       <c r="H68" s="6">
-        <v>0.2</v>
+        <v>0.13358900000000001</v>
       </c>
       <c r="I68" s="6">
         <v>0.25</v>
@@ -5025,10 +5024,10 @@
         <v>0.4</v>
       </c>
       <c r="G69" s="6">
-        <v>6.25E-2</v>
+        <v>7.1819999999999995E-2</v>
       </c>
       <c r="H69" s="6">
-        <v>0.125</v>
+        <v>0.13431999999999999</v>
       </c>
       <c r="I69" s="6">
         <v>0.1</v>
@@ -5089,10 +5088,10 @@
         <v>0.63333300000000003</v>
       </c>
       <c r="G70" s="6">
-        <v>4.9180000000000001E-2</v>
+        <v>4.9377999999999998E-2</v>
       </c>
       <c r="H70" s="6">
-        <v>3.2786999999999997E-2</v>
+        <v>3.2985E-2</v>
       </c>
       <c r="I70" s="6">
         <v>0.1</v>
@@ -5153,10 +5152,10 @@
         <v>0.67741899999999999</v>
       </c>
       <c r="G71" s="6">
-        <v>0</v>
+        <v>1.9789999999999999E-3</v>
       </c>
       <c r="H71" s="6">
-        <v>3.125E-2</v>
+        <v>2.9270999999999998E-2</v>
       </c>
       <c r="I71" s="6">
         <v>0.1</v>
@@ -5217,10 +5216,10 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>8.7359999999999993E-2</v>
       </c>
       <c r="H72" s="6">
-        <v>0</v>
+        <v>3.5500000000000002E-3</v>
       </c>
       <c r="I72" s="6">
         <v>0.1</v>
@@ -5281,10 +5280,10 @@
         <v>0.77777799999999997</v>
       </c>
       <c r="G73" s="6">
-        <v>0.1</v>
+        <v>0.145396</v>
       </c>
       <c r="H73" s="6">
-        <v>0</v>
+        <v>4.5395999999999999E-2</v>
       </c>
       <c r="I73" s="6">
         <v>0.111111</v>
@@ -5345,10 +5344,10 @@
         <v>0.414634</v>
       </c>
       <c r="G74" s="6">
-        <v>0</v>
+        <v>4.7590000000000002E-3</v>
       </c>
       <c r="H74" s="6">
-        <v>2.3810000000000001E-2</v>
+        <v>1.9050999999999998E-2</v>
       </c>
       <c r="I74" s="6">
         <v>0.1</v>
@@ -5409,10 +5408,10 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="G75" s="6">
-        <v>0</v>
+        <v>2.0426E-2</v>
       </c>
       <c r="H75" s="6">
-        <v>0.125</v>
+        <v>0.104574</v>
       </c>
       <c r="I75" s="6">
         <v>0.14285700000000001</v>
@@ -5473,10 +5472,10 @@
         <v>0.3</v>
       </c>
       <c r="G76" s="6">
-        <v>0</v>
+        <v>2.6339999999999999E-2</v>
       </c>
       <c r="H76" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>0.11724900000000001</v>
       </c>
       <c r="I76" s="6">
         <v>0.1</v>
@@ -5537,10 +5536,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G77" s="6">
-        <v>6.6667000000000004E-2</v>
+        <v>4.3562999999999998E-2</v>
       </c>
       <c r="H77" s="6">
-        <v>0</v>
+        <v>2.3104E-2</v>
       </c>
       <c r="I77" s="6">
         <v>0.1</v>
@@ -5601,10 +5600,10 @@
         <v>0.62295100000000003</v>
       </c>
       <c r="G78" s="6">
-        <v>3.2258000000000002E-2</v>
+        <v>3.9065999999999997E-2</v>
       </c>
       <c r="H78" s="6">
-        <v>1.6129000000000001E-2</v>
+        <v>2.2936999999999999E-2</v>
       </c>
       <c r="I78" s="6">
         <v>0.1</v>
@@ -5665,10 +5664,10 @@
         <v>0.5</v>
       </c>
       <c r="G79" s="6">
-        <v>0.2</v>
+        <v>0.102157</v>
       </c>
       <c r="H79" s="6">
-        <v>0</v>
+        <v>9.7842999999999999E-2</v>
       </c>
       <c r="I79" s="6">
         <v>0.25</v>
@@ -5729,10 +5728,10 @@
         <v>0.4375</v>
       </c>
       <c r="G80" s="6">
-        <v>5.8824000000000001E-2</v>
+        <v>5.6727E-2</v>
       </c>
       <c r="H80" s="6">
-        <v>0.117647</v>
+        <v>0.11555</v>
       </c>
       <c r="I80" s="6">
         <v>0.1</v>
@@ -5793,10 +5792,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G81" s="6">
-        <v>0</v>
+        <v>7.5550000000000001E-3</v>
       </c>
       <c r="H81" s="6">
-        <v>0.1</v>
+        <v>0.107555</v>
       </c>
       <c r="I81" s="6">
         <v>0.111111</v>
@@ -5857,10 +5856,10 @@
         <v>0.45161299999999999</v>
       </c>
       <c r="G82" s="6">
-        <v>0</v>
+        <v>1.709E-3</v>
       </c>
       <c r="H82" s="6">
-        <v>3.125E-2</v>
+        <v>3.2959000000000002E-2</v>
       </c>
       <c r="I82" s="6">
         <v>0.1</v>
@@ -5921,10 +5920,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G83" s="6">
-        <v>4.5455000000000002E-2</v>
+        <v>3.6796000000000002E-2</v>
       </c>
       <c r="H83" s="6">
-        <v>0</v>
+        <v>8.659E-3</v>
       </c>
       <c r="I83" s="6">
         <v>0.1</v>
@@ -5985,10 +5984,10 @@
         <v>0.6875</v>
       </c>
       <c r="G84" s="11">
-        <v>0</v>
+        <v>1.1449000000000001E-2</v>
       </c>
       <c r="H84" s="11">
-        <v>3.0303E-2</v>
+        <v>1.8853999999999999E-2</v>
       </c>
       <c r="I84" s="11">
         <v>0.1</v>
@@ -6050,10 +6049,10 @@
         <v>0.61290299999999998</v>
       </c>
       <c r="G85" s="6">
-        <v>3.1746000000000003E-2</v>
+        <v>2.9080999999999999E-2</v>
       </c>
       <c r="H85" s="6">
-        <v>1.5873000000000002E-2</v>
+        <v>1.3207999999999999E-2</v>
       </c>
       <c r="I85" s="6">
         <v>0.1</v>
@@ -6114,10 +6113,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G86" s="6">
-        <v>0.25</v>
+        <v>0.19844899999999999</v>
       </c>
       <c r="H86" s="6">
-        <v>0</v>
+        <v>5.1551E-2</v>
       </c>
       <c r="I86" s="6">
         <v>0.33333299999999999</v>
@@ -6178,10 +6177,10 @@
         <v>0.38461499999999998</v>
       </c>
       <c r="G87" s="6">
-        <v>7.1429000000000006E-2</v>
+        <v>6.1824999999999998E-2</v>
       </c>
       <c r="H87" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.13325400000000001</v>
       </c>
       <c r="I87" s="6">
         <v>0.1</v>
@@ -6242,10 +6241,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G88" s="6">
-        <v>2.3255999999999999E-2</v>
+        <v>1.8048000000000002E-2</v>
       </c>
       <c r="H88" s="6">
-        <v>0</v>
+        <v>5.208E-3</v>
       </c>
       <c r="I88" s="6">
         <v>0.1</v>
@@ -6306,10 +6305,10 @@
         <v>0.5</v>
       </c>
       <c r="G89" s="6">
-        <v>0.111111</v>
+        <v>5.6911000000000003E-2</v>
       </c>
       <c r="H89" s="6">
-        <v>0</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="I89" s="6">
         <v>0.125</v>
@@ -6370,10 +6369,10 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="G90" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.13184299999999999</v>
       </c>
       <c r="H90" s="6">
-        <v>0</v>
+        <v>1.1013999999999999E-2</v>
       </c>
       <c r="I90" s="6">
         <v>0.16666700000000001</v>
@@ -6434,10 +6433,10 @@
         <v>0.368421</v>
       </c>
       <c r="G91" s="6">
-        <v>0.1</v>
+        <v>7.9712000000000005E-2</v>
       </c>
       <c r="H91" s="6">
-        <v>0.15</v>
+        <v>0.12971199999999999</v>
       </c>
       <c r="I91" s="6">
         <v>0.1</v>
@@ -6498,10 +6497,10 @@
         <v>0.38095200000000001</v>
       </c>
       <c r="G92" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>9.8491999999999996E-2</v>
       </c>
       <c r="H92" s="6">
-        <v>0.13636400000000001</v>
+        <v>0.14394699999999999</v>
       </c>
       <c r="I92" s="6">
         <v>0.1</v>
@@ -6562,10 +6561,10 @@
         <v>0.4375</v>
       </c>
       <c r="G93" s="6">
-        <v>0</v>
+        <v>2.0279999999999999E-2</v>
       </c>
       <c r="H93" s="6">
-        <v>5.8824000000000001E-2</v>
+        <v>3.8544000000000002E-2</v>
       </c>
       <c r="I93" s="6">
         <v>0.1</v>
@@ -6626,10 +6625,10 @@
         <v>0.60317500000000002</v>
       </c>
       <c r="G94" s="6">
-        <v>1.5625E-2</v>
+        <v>1.9408999999999999E-2</v>
       </c>
       <c r="H94" s="6">
-        <v>0</v>
+        <v>3.784E-3</v>
       </c>
       <c r="I94" s="6">
         <v>0.1</v>
@@ -6690,10 +6689,10 @@
         <v>0.54545500000000002</v>
       </c>
       <c r="G95" s="11">
-        <v>0</v>
+        <v>3.8894999999999999E-2</v>
       </c>
       <c r="H95" s="11">
-        <v>8.3333000000000004E-2</v>
+        <v>4.4437999999999998E-2</v>
       </c>
       <c r="I95" s="11">
         <v>0.1</v>
@@ -6755,10 +6754,10 @@
         <v>0.46875</v>
       </c>
       <c r="G96" s="6">
-        <v>0</v>
+        <v>1.439E-2</v>
       </c>
       <c r="H96" s="6">
-        <v>3.0303E-2</v>
+        <v>1.5913E-2</v>
       </c>
       <c r="I96" s="6">
         <v>0.1</v>
@@ -6819,10 +6818,10 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="G97" s="6">
-        <v>0</v>
+        <v>2.4891E-2</v>
       </c>
       <c r="H97" s="6">
-        <v>0.125</v>
+        <v>0.149891</v>
       </c>
       <c r="I97" s="6">
         <v>0.14285700000000001</v>
@@ -6883,10 +6882,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="G98" s="6">
-        <v>0</v>
+        <v>3.8089999999999999E-2</v>
       </c>
       <c r="H98" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.180948</v>
       </c>
       <c r="I98" s="6">
         <v>0.16666700000000001</v>
@@ -6947,10 +6946,10 @@
         <v>0.418605</v>
       </c>
       <c r="G99" s="6">
-        <v>0</v>
+        <v>8.0059999999999992E-3</v>
       </c>
       <c r="H99" s="6">
-        <v>2.2727000000000001E-2</v>
+        <v>1.4722000000000001E-2</v>
       </c>
       <c r="I99" s="6">
         <v>0.1</v>
@@ -7011,10 +7010,10 @@
         <v>0.4375</v>
       </c>
       <c r="G100" s="6">
-        <v>5.8824000000000001E-2</v>
+        <v>3.8732000000000003E-2</v>
       </c>
       <c r="H100" s="6">
-        <v>0.117647</v>
+        <v>9.7556000000000004E-2</v>
       </c>
       <c r="I100" s="6">
         <v>0.1</v>
@@ -7056,65 +7055,66 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="9">
         <v>535</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="9">
         <v>579798</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="9">
         <v>34</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="11">
         <v>0.68552100000000005</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="11">
         <v>0.69696999999999998</v>
       </c>
-      <c r="G101" s="6">
-        <v>2.9412000000000001E-2</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101">
+      <c r="G101" s="11">
+        <v>2.0361000000000001E-2</v>
+      </c>
+      <c r="H101" s="11">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="I101" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="9">
         <v>8</v>
       </c>
-      <c r="L101" s="5"/>
-      <c r="M101" t="str">
+      <c r="L101" s="9"/>
+      <c r="M101" s="9" t="str">
         <f t="shared" si="6"/>
         <v>REP</v>
       </c>
-      <c r="N101" t="str">
+      <c r="N101" s="9" t="str">
         <f t="shared" si="7"/>
         <v>GOOD</v>
       </c>
-      <c r="P101">
+      <c r="O101" s="9"/>
+      <c r="P101" s="9">
         <f t="shared" si="8"/>
         <v>264</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="9">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S101" s="5"/>
-      <c r="T101" t="s">
-        <v>12</v>
-      </c>
-      <c r="U101" t="str">
+      <c r="S101" s="9"/>
+      <c r="T101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U101" s="9" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -7139,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="6">
-        <v>0</v>
+        <v>7.4496999999999994E-2</v>
       </c>
       <c r="H102" s="6">
-        <v>0.5</v>
+        <v>0.42550300000000002</v>
       </c>
       <c r="I102" s="6">
         <v>1</v>
@@ -7203,10 +7203,10 @@
         <v>0.59375</v>
       </c>
       <c r="G103" s="6">
-        <v>1.5384999999999999E-2</v>
+        <v>1.0034E-2</v>
       </c>
       <c r="H103" s="6">
-        <v>0</v>
+        <v>5.3509999999999999E-3</v>
       </c>
       <c r="I103" s="6">
         <v>0.1</v>
@@ -7267,10 +7267,10 @@
         <v>0.4</v>
       </c>
       <c r="G104" s="6">
-        <v>0</v>
+        <v>2.1137E-2</v>
       </c>
       <c r="H104" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>6.9772000000000001E-2</v>
       </c>
       <c r="I104" s="6">
         <v>0.1</v>
@@ -7331,10 +7331,10 @@
         <v>0.54545500000000002</v>
       </c>
       <c r="G105" s="6">
-        <v>0</v>
+        <v>1.1103999999999999E-2</v>
       </c>
       <c r="H105" s="6">
-        <v>4.3478000000000003E-2</v>
+        <v>3.2374E-2</v>
       </c>
       <c r="I105" s="6">
         <v>0.1</v>
@@ -7395,10 +7395,10 @@
         <v>0.81818199999999996</v>
       </c>
       <c r="G106" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.159834</v>
       </c>
       <c r="H106" s="6">
-        <v>8.3333000000000004E-2</v>
+        <v>7.6501E-2</v>
       </c>
       <c r="I106" s="6">
         <v>0.1</v>
@@ -7459,10 +7459,10 @@
         <v>0.584615</v>
       </c>
       <c r="G107" s="6">
-        <v>0</v>
+        <v>9.4300000000000004E-4</v>
       </c>
       <c r="H107" s="6">
-        <v>1.5152000000000001E-2</v>
+        <v>1.4208999999999999E-2</v>
       </c>
       <c r="I107" s="6">
         <v>0.1</v>
@@ -7523,10 +7523,10 @@
         <v>0.53333299999999995</v>
       </c>
       <c r="G108" s="6">
-        <v>0</v>
+        <v>6.0629999999999998E-3</v>
       </c>
       <c r="H108" s="6">
-        <v>6.25E-2</v>
+        <v>5.6437000000000001E-2</v>
       </c>
       <c r="I108" s="6">
         <v>0.1</v>
@@ -7587,10 +7587,10 @@
         <v>0.43181799999999998</v>
       </c>
       <c r="G109" s="6">
-        <v>2.2221999999999999E-2</v>
+        <v>2.0632000000000001E-2</v>
       </c>
       <c r="H109" s="6">
-        <v>0</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="I109" s="6">
         <v>0.1</v>
@@ -7651,10 +7651,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G110" s="6">
-        <v>0</v>
+        <v>2.7314999999999999E-2</v>
       </c>
       <c r="H110" s="6">
-        <v>5.5556000000000001E-2</v>
+        <v>8.2871E-2</v>
       </c>
       <c r="I110" s="6">
         <v>0.1</v>
@@ -7715,10 +7715,10 @@
         <v>0.40909099999999998</v>
       </c>
       <c r="G111" s="6">
-        <v>8.6957000000000007E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="H111" s="6">
-        <v>0.130435</v>
+        <v>0.11627899999999999</v>
       </c>
       <c r="I111" s="6">
         <v>0.1</v>
@@ -7779,10 +7779,10 @@
         <v>0.25</v>
       </c>
       <c r="G112" s="6">
-        <v>0</v>
+        <v>5.2958999999999999E-2</v>
       </c>
       <c r="H112" s="6">
-        <v>0.111111</v>
+        <v>0.16406999999999999</v>
       </c>
       <c r="I112" s="6">
         <v>0.125</v>
@@ -7843,10 +7843,10 @@
         <v>0.36363600000000001</v>
       </c>
       <c r="G113" s="6">
-        <v>0</v>
+        <v>4.1397000000000003E-2</v>
       </c>
       <c r="H113" s="6">
-        <v>8.3333000000000004E-2</v>
+        <v>0.12472999999999999</v>
       </c>
       <c r="I113" s="6">
         <v>0.1</v>
@@ -7907,10 +7907,10 @@
         <v>0.4</v>
       </c>
       <c r="G114" s="6">
-        <v>4.7619000000000002E-2</v>
+        <v>5.1139999999999998E-2</v>
       </c>
       <c r="H114" s="6">
-        <v>9.5238000000000003E-2</v>
+        <v>9.8759E-2</v>
       </c>
       <c r="I114" s="6">
         <v>0.1</v>
@@ -7971,10 +7971,10 @@
         <v>0.484848</v>
       </c>
       <c r="G115" s="6">
-        <v>2.9412000000000001E-2</v>
+        <v>2.9541000000000001E-2</v>
       </c>
       <c r="H115" s="6">
-        <v>0</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="I115" s="6">
         <v>0.1</v>
@@ -8035,10 +8035,10 @@
         <v>0.67647100000000004</v>
       </c>
       <c r="G116" s="6">
-        <v>0</v>
+        <v>1.93E-4</v>
       </c>
       <c r="H116" s="6">
-        <v>2.8570999999999999E-2</v>
+        <v>2.8378E-2</v>
       </c>
       <c r="I116" s="6">
         <v>0.1</v>
@@ -8080,65 +8080,66 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="9">
         <v>551</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="9">
         <v>561550</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="9">
         <v>67</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="11">
         <v>0.58996599999999999</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="11">
         <v>0.59090900000000002</v>
       </c>
-      <c r="G117" s="6">
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
-        <v>1.4925000000000001E-2</v>
-      </c>
-      <c r="I117" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>12</v>
-      </c>
-      <c r="K117">
+      <c r="G117" s="11">
+        <v>7.0489999999999997E-3</v>
+      </c>
+      <c r="H117" s="11">
+        <v>7.8770000000000003E-3</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" s="9">
         <v>4</v>
       </c>
-      <c r="L117" s="5"/>
-      <c r="M117" t="str">
+      <c r="L117" s="9"/>
+      <c r="M117" s="9" t="str">
         <f t="shared" si="6"/>
         <v>DEM</v>
       </c>
-      <c r="N117" t="str">
+      <c r="N117" s="9" t="str">
         <f t="shared" si="7"/>
         <v>GOOD</v>
       </c>
-      <c r="P117">
+      <c r="O117" s="9"/>
+      <c r="P117" s="9">
         <f t="shared" si="8"/>
         <v>276</v>
       </c>
-      <c r="Q117">
+      <c r="Q117" s="9">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S117" s="5"/>
-      <c r="T117" t="s">
-        <v>15</v>
-      </c>
-      <c r="U117" t="str">
+      <c r="S117" s="9"/>
+      <c r="T117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U117" s="9" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -8163,10 +8164,10 @@
         <v>0.55555600000000005</v>
       </c>
       <c r="G118" s="6">
-        <v>0</v>
+        <v>3.6750999999999999E-2</v>
       </c>
       <c r="H118" s="6">
-        <v>0.1</v>
+        <v>6.3249E-2</v>
       </c>
       <c r="I118" s="6">
         <v>0.111111</v>
@@ -8208,65 +8209,66 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="9">
         <v>553</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="9">
         <v>558154</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D119">
-        <v>12</v>
-      </c>
-      <c r="E119" s="6">
+      <c r="D119" s="9">
+        <v>12</v>
+      </c>
+      <c r="E119" s="11">
         <v>0.45809499999999997</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="11">
         <v>0.45454499999999998</v>
       </c>
-      <c r="G119" s="6">
-        <v>8.3333000000000004E-2</v>
-      </c>
-      <c r="H119" s="6">
-        <v>0</v>
-      </c>
-      <c r="I119" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119">
+      <c r="G119" s="11">
+        <v>4.1904999999999998E-2</v>
+      </c>
+      <c r="H119" s="11">
+        <v>4.1428E-2</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="9">
         <v>4</v>
       </c>
-      <c r="L119" s="5"/>
-      <c r="M119" t="str">
+      <c r="L119" s="9"/>
+      <c r="M119" s="9" t="str">
         <f t="shared" si="6"/>
         <v>REP</v>
       </c>
-      <c r="N119" t="str">
+      <c r="N119" s="9" t="str">
         <f t="shared" si="7"/>
         <v>GOOD</v>
       </c>
-      <c r="P119">
+      <c r="O119" s="9"/>
+      <c r="P119" s="9">
         <f t="shared" si="8"/>
         <v>277</v>
       </c>
-      <c r="Q119">
+      <c r="Q119" s="9">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S119" s="5"/>
-      <c r="T119" t="s">
-        <v>12</v>
-      </c>
-      <c r="U119" t="str">
+      <c r="S119" s="9"/>
+      <c r="T119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U119" s="9" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -8291,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.32548700000000003</v>
       </c>
       <c r="H120" s="6">
-        <v>0</v>
+        <v>7.8460000000000005E-3</v>
       </c>
       <c r="I120" s="6">
         <v>0.5</v>
@@ -8355,10 +8357,10 @@
         <v>0.6</v>
       </c>
       <c r="G121" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.151361</v>
       </c>
       <c r="H121" s="6">
-        <v>0</v>
+        <v>1.5304999999999999E-2</v>
       </c>
       <c r="I121" s="6">
         <v>0.2</v>
@@ -8419,10 +8421,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G122" s="6">
-        <v>5.5556000000000001E-2</v>
+        <v>4.9690999999999999E-2</v>
       </c>
       <c r="H122" s="6">
-        <v>0</v>
+        <v>5.8640000000000003E-3</v>
       </c>
       <c r="I122" s="6">
         <v>0.1</v>
@@ -8464,65 +8466,66 @@
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="9">
         <v>557</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="9">
         <v>555383</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="9">
         <v>46</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="11">
         <v>0.423813</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="11">
         <v>0.42222199999999999</v>
       </c>
-      <c r="G123" s="6">
-        <v>2.1739000000000001E-2</v>
-      </c>
-      <c r="H123" s="6">
-        <v>0</v>
-      </c>
-      <c r="I123" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J123" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123">
+      <c r="G123" s="11">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="H123" s="11">
+        <v>1.0769000000000001E-2</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="9">
         <v>6</v>
       </c>
-      <c r="L123" s="5"/>
-      <c r="M123" t="str">
+      <c r="L123" s="9"/>
+      <c r="M123" s="9" t="str">
         <f t="shared" si="6"/>
         <v>REP</v>
       </c>
-      <c r="N123" t="str">
+      <c r="N123" s="9" t="str">
         <f t="shared" si="7"/>
         <v>GOOD</v>
       </c>
-      <c r="P123">
+      <c r="O123" s="9"/>
+      <c r="P123" s="9">
         <f t="shared" si="8"/>
         <v>277</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="9">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S123" s="5"/>
-      <c r="T123" t="s">
-        <v>12</v>
-      </c>
-      <c r="U123" t="str">
+      <c r="S123" s="9"/>
+      <c r="T123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U123" s="9" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -8547,10 +8550,10 @@
         <v>0.36363600000000001</v>
       </c>
       <c r="G124" s="6">
-        <v>0</v>
+        <v>2.6689999999999998E-2</v>
       </c>
       <c r="H124" s="6">
-        <v>8.3333000000000004E-2</v>
+        <v>5.6642999999999999E-2</v>
       </c>
       <c r="I124" s="6">
         <v>0.1</v>
@@ -8611,10 +8614,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G125" s="6">
-        <v>0</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="H125" s="6">
-        <v>6.6667000000000004E-2</v>
+        <v>9.0396000000000004E-2</v>
       </c>
       <c r="I125" s="6">
         <v>0.1</v>
@@ -8656,65 +8659,66 @@
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="9">
         <v>560</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="9">
         <v>553230</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="9">
         <v>68</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="11">
         <v>0.58996599999999999</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="11">
         <v>0.59701499999999996</v>
       </c>
-      <c r="G126" s="6">
-        <v>1.4706E-2</v>
-      </c>
-      <c r="H126" s="6">
-        <v>0</v>
-      </c>
-      <c r="I126" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126">
+      <c r="G126" s="11">
+        <v>1.2975E-2</v>
+      </c>
+      <c r="H126" s="11">
+        <v>1.7309999999999999E-3</v>
+      </c>
+      <c r="I126" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="9">
         <v>6</v>
       </c>
-      <c r="L126" s="5"/>
-      <c r="M126" t="str">
+      <c r="L126" s="9"/>
+      <c r="M126" s="9" t="str">
         <f t="shared" si="6"/>
         <v>REP</v>
       </c>
-      <c r="N126" t="str">
+      <c r="N126" s="9" t="str">
         <f t="shared" si="7"/>
         <v>GOOD</v>
       </c>
-      <c r="P126">
+      <c r="O126" s="9"/>
+      <c r="P126" s="9">
         <f t="shared" si="8"/>
         <v>279</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" s="9">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S126" s="5"/>
-      <c r="T126" t="s">
-        <v>12</v>
-      </c>
-      <c r="U126" t="str">
+      <c r="S126" s="9"/>
+      <c r="T126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U126" s="9" t="str">
         <f t="shared" si="11"/>
         <v>DIFF</v>
       </c>
@@ -8739,10 +8743,10 @@
         <v>0.83333299999999999</v>
       </c>
       <c r="G127" s="6">
-        <v>0.14285700000000001</v>
+        <v>0.21393400000000001</v>
       </c>
       <c r="H127" s="6">
-        <v>0</v>
+        <v>7.1077000000000001E-2</v>
       </c>
       <c r="I127" s="6">
         <v>0.16666700000000001</v>
@@ -8803,10 +8807,10 @@
         <v>0.7</v>
       </c>
       <c r="G128" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>7.2668999999999997E-2</v>
       </c>
       <c r="H128" s="6">
-        <v>0</v>
+        <v>1.8239999999999999E-2</v>
       </c>
       <c r="I128" s="6">
         <v>0.1</v>
@@ -8867,10 +8871,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G129" s="6">
-        <v>2.8570999999999999E-2</v>
+        <v>1.5254999999999999E-2</v>
       </c>
       <c r="H129" s="6">
-        <v>0</v>
+        <v>1.3316E-2</v>
       </c>
       <c r="I129" s="6">
         <v>0.1</v>
@@ -8931,10 +8935,10 @@
         <v>0.56521699999999997</v>
       </c>
       <c r="G130" s="6">
-        <v>4.1667000000000003E-2</v>
+        <v>2.9219999999999999E-2</v>
       </c>
       <c r="H130" s="6">
-        <v>0</v>
+        <v>1.2446E-2</v>
       </c>
       <c r="I130" s="6">
         <v>0.1</v>
@@ -8995,10 +8999,10 @@
         <v>0.25</v>
       </c>
       <c r="G131" s="6">
-        <v>0.111111</v>
+        <v>8.2827999999999999E-2</v>
       </c>
       <c r="H131" s="6">
-        <v>0.222222</v>
+        <v>0.193939</v>
       </c>
       <c r="I131" s="6">
         <v>0.125</v>
@@ -9040,65 +9044,66 @@
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="9">
         <v>566</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="9">
         <v>547126</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="9">
         <v>36</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="11">
         <v>0.68552100000000005</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="11">
         <v>0.68571400000000005</v>
       </c>
-      <c r="G132" s="6">
-        <v>0</v>
-      </c>
-      <c r="H132" s="6">
-        <v>2.7778000000000001E-2</v>
-      </c>
-      <c r="I132" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J132" t="s">
-        <v>12</v>
-      </c>
-      <c r="K132">
+      <c r="G132" s="11">
+        <v>8.9230000000000004E-3</v>
+      </c>
+      <c r="H132" s="11">
+        <v>1.8853999999999999E-2</v>
+      </c>
+      <c r="I132" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" s="9">
         <v>7</v>
       </c>
-      <c r="L132" s="5"/>
-      <c r="M132" t="str">
+      <c r="L132" s="9"/>
+      <c r="M132" s="9" t="str">
         <f t="shared" si="12"/>
         <v>DEM</v>
       </c>
-      <c r="N132" t="str">
+      <c r="N132" s="9" t="str">
         <f t="shared" si="13"/>
         <v>GOOD</v>
       </c>
-      <c r="P132">
+      <c r="O132" s="9"/>
+      <c r="P132" s="9">
         <f t="shared" si="14"/>
         <v>281</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" s="9">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S132" s="5"/>
-      <c r="T132" t="s">
-        <v>15</v>
-      </c>
-      <c r="U132" t="str">
+      <c r="S132" s="9"/>
+      <c r="T132" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U132" s="9" t="str">
         <f t="shared" si="17"/>
         <v>DIFF</v>
       </c>
@@ -9123,10 +9128,10 @@
         <v>0.47058800000000001</v>
       </c>
       <c r="G133" s="6">
-        <v>0</v>
+        <v>9.3200000000000002E-3</v>
       </c>
       <c r="H133" s="6">
-        <v>5.5556000000000001E-2</v>
+        <v>6.4876000000000003E-2</v>
       </c>
       <c r="I133" s="6">
         <v>0.1</v>
@@ -9187,10 +9192,10 @@
         <v>0.58823499999999995</v>
       </c>
       <c r="G134" s="6">
-        <v>0</v>
+        <v>4.2370000000000003E-3</v>
       </c>
       <c r="H134" s="6">
-        <v>1.4493000000000001E-2</v>
+        <v>1.0255999999999999E-2</v>
       </c>
       <c r="I134" s="6">
         <v>0.1</v>
@@ -9251,10 +9256,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.38336900000000002</v>
       </c>
       <c r="H135" s="6">
-        <v>0</v>
+        <v>5.0035999999999997E-2</v>
       </c>
       <c r="I135" s="6">
         <v>0.5</v>
@@ -9315,10 +9320,10 @@
         <v>0.4</v>
       </c>
       <c r="G136" s="6">
-        <v>0</v>
+        <v>7.8825000000000006E-2</v>
       </c>
       <c r="H136" s="6">
-        <v>0.16666700000000001</v>
+        <v>8.7841000000000002E-2</v>
       </c>
       <c r="I136" s="6">
         <v>0.2</v>
@@ -9360,65 +9365,66 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="9">
         <v>571</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="9">
         <v>543438</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="9">
         <v>47</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="11">
         <v>0.423813</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="11">
         <v>0.41304299999999999</v>
       </c>
-      <c r="G137" s="6">
-        <v>0</v>
-      </c>
-      <c r="H137" s="6">
-        <v>2.1277000000000001E-2</v>
-      </c>
-      <c r="I137" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>12</v>
-      </c>
-      <c r="K137">
+      <c r="G137" s="11">
+        <v>1.719E-3</v>
+      </c>
+      <c r="H137" s="11">
+        <v>1.9557000000000001E-2</v>
+      </c>
+      <c r="I137" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K137" s="9">
         <v>5</v>
       </c>
-      <c r="L137" s="5"/>
-      <c r="M137" t="str">
+      <c r="L137" s="9"/>
+      <c r="M137" s="9" t="str">
         <f t="shared" si="12"/>
         <v>DEM</v>
       </c>
-      <c r="N137" t="str">
+      <c r="N137" s="9" t="str">
         <f t="shared" si="13"/>
         <v>GOOD</v>
       </c>
-      <c r="P137">
+      <c r="O137" s="9"/>
+      <c r="P137" s="9">
         <f t="shared" si="14"/>
         <v>285</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S137" s="5"/>
-      <c r="T137" t="s">
-        <v>15</v>
-      </c>
-      <c r="U137" t="str">
+      <c r="S137" s="9"/>
+      <c r="T137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U137" s="9" t="str">
         <f t="shared" si="17"/>
         <v>DIFF</v>
       </c>
@@ -9443,10 +9449,10 @@
         <v>0.5</v>
       </c>
       <c r="G138" s="6">
-        <v>0</v>
+        <v>3.7899000000000002E-2</v>
       </c>
       <c r="H138" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>5.3010000000000002E-2</v>
       </c>
       <c r="I138" s="6">
         <v>0.1</v>
@@ -9507,10 +9513,10 @@
         <v>0.43478299999999998</v>
       </c>
       <c r="G139" s="6">
-        <v>4.1667000000000003E-2</v>
+        <v>4.9250000000000002E-2</v>
       </c>
       <c r="H139" s="6">
-        <v>8.3333000000000004E-2</v>
+        <v>9.0915999999999997E-2</v>
       </c>
       <c r="I139" s="6">
         <v>0.1</v>
@@ -9552,65 +9558,66 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="9">
         <v>574</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="9">
         <v>540702</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="9">
         <v>13</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="11">
         <v>0.54443799999999998</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="11">
         <v>0.58333299999999999</v>
       </c>
-      <c r="G140" s="6">
-        <v>7.6923000000000005E-2</v>
-      </c>
-      <c r="H140" s="6">
-        <v>0</v>
-      </c>
-      <c r="I140" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J140" t="s">
-        <v>15</v>
-      </c>
-      <c r="K140">
+      <c r="G140" s="11">
+        <v>7.0945999999999995E-2</v>
+      </c>
+      <c r="H140" s="11">
+        <v>5.9769999999999997E-3</v>
+      </c>
+      <c r="I140" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="9">
         <v>5</v>
       </c>
-      <c r="L140" s="5"/>
-      <c r="M140" t="str">
+      <c r="L140" s="9"/>
+      <c r="M140" s="9" t="str">
         <f t="shared" si="12"/>
         <v>REP</v>
       </c>
-      <c r="N140" t="str">
+      <c r="N140" s="9" t="str">
         <f t="shared" si="13"/>
         <v>GOOD</v>
       </c>
-      <c r="P140">
+      <c r="O140" s="9"/>
+      <c r="P140" s="9">
         <f t="shared" si="14"/>
         <v>287</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S140" s="5"/>
-      <c r="T140" t="s">
-        <v>12</v>
-      </c>
-      <c r="U140" t="str">
+      <c r="S140" s="9"/>
+      <c r="T140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U140" s="9" t="str">
         <f t="shared" si="17"/>
         <v>DIFF</v>
       </c>
@@ -9635,10 +9642,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="6">
-        <v>0.33333299999999999</v>
+        <v>0.47755799999999998</v>
       </c>
       <c r="H141" s="6">
-        <v>0</v>
+        <v>0.14422499999999999</v>
       </c>
       <c r="I141" s="6">
         <v>0.5</v>
@@ -9699,10 +9706,10 @@
         <v>0.42857099999999998</v>
       </c>
       <c r="G142" s="6">
-        <v>4.5455000000000002E-2</v>
+        <v>2.5166000000000001E-2</v>
       </c>
       <c r="H142" s="6">
-        <v>9.0909000000000004E-2</v>
+        <v>7.0621000000000003E-2</v>
       </c>
       <c r="I142" s="6">
         <v>0.1</v>
@@ -9763,10 +9770,10 @@
         <v>0.59420300000000004</v>
       </c>
       <c r="G143" s="6">
-        <v>1.4286E-2</v>
+        <v>1.0034E-2</v>
       </c>
       <c r="H143" s="6">
-        <v>0</v>
+        <v>4.2519999999999997E-3</v>
       </c>
       <c r="I143" s="6">
         <v>0.1</v>
@@ -9827,10 +9834,10 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="G144" s="6">
-        <v>0</v>
+        <v>9.9127999999999994E-2</v>
       </c>
       <c r="H144" s="6">
-        <v>0.25</v>
+        <v>0.15087200000000001</v>
       </c>
       <c r="I144" s="6">
         <v>0.33333299999999999</v>
@@ -9891,10 +9898,10 @@
         <v>0.375</v>
       </c>
       <c r="G145" s="6">
-        <v>0.111111</v>
+        <v>8.9871000000000006E-2</v>
       </c>
       <c r="H145" s="6">
-        <v>0</v>
+        <v>2.1239999999999998E-2</v>
       </c>
       <c r="I145" s="6">
         <v>0.125</v>
@@ -9955,10 +9962,10 @@
         <v>0.5</v>
       </c>
       <c r="G146" s="6">
-        <v>0</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="H146" s="6">
-        <v>5.2631999999999998E-2</v>
+        <v>5.3630999999999998E-2</v>
       </c>
       <c r="I146" s="6">
         <v>0.1</v>
@@ -10019,10 +10026,10 @@
         <v>0.2</v>
       </c>
       <c r="G147" s="6">
-        <v>0</v>
+        <v>4.2969E-2</v>
       </c>
       <c r="H147" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.20963499999999999</v>
       </c>
       <c r="I147" s="6">
         <v>0.2</v>
@@ -10083,10 +10090,10 @@
         <v>0.5625</v>
       </c>
       <c r="G148" s="6">
-        <v>5.8824000000000001E-2</v>
+        <v>3.1798E-2</v>
       </c>
       <c r="H148" s="6">
-        <v>0</v>
+        <v>2.7025E-2</v>
       </c>
       <c r="I148" s="6">
         <v>0.1</v>
@@ -10147,10 +10154,10 @@
         <v>0.45714300000000002</v>
       </c>
       <c r="G149" s="6">
-        <v>0</v>
+        <v>1.763E-3</v>
       </c>
       <c r="H149" s="6">
-        <v>2.7778000000000001E-2</v>
+        <v>2.6013999999999999E-2</v>
       </c>
       <c r="I149" s="6">
         <v>0.1</v>
@@ -10192,65 +10199,66 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="9">
         <v>584</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="9">
         <v>532134</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="9">
         <v>37</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="11">
         <v>0.68552100000000005</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="11">
         <v>0.69444399999999995</v>
       </c>
-      <c r="G150" s="6">
-        <v>2.7026999999999999E-2</v>
-      </c>
-      <c r="H150" s="6">
-        <v>0</v>
-      </c>
-      <c r="I150" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K150">
+      <c r="G150" s="11">
+        <v>1.7181999999999999E-2</v>
+      </c>
+      <c r="H150" s="11">
+        <v>9.8449999999999996E-3</v>
+      </c>
+      <c r="I150" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="9">
         <v>5</v>
       </c>
-      <c r="L150" s="5"/>
-      <c r="M150" t="str">
+      <c r="L150" s="9"/>
+      <c r="M150" s="9" t="str">
         <f t="shared" si="12"/>
         <v>REP</v>
       </c>
-      <c r="N150" t="str">
+      <c r="N150" s="9" t="str">
         <f t="shared" si="13"/>
         <v>GOOD</v>
       </c>
-      <c r="P150">
+      <c r="O150" s="9"/>
+      <c r="P150" s="9">
         <f t="shared" si="14"/>
         <v>292</v>
       </c>
-      <c r="Q150">
+      <c r="Q150" s="9">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="R150">
+      <c r="R150" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S150" s="5"/>
-      <c r="T150" t="s">
-        <v>12</v>
-      </c>
-      <c r="U150" t="str">
+      <c r="S150" s="9"/>
+      <c r="T150" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U150" s="9" t="str">
         <f t="shared" si="17"/>
         <v>DIFF</v>
       </c>
@@ -10275,10 +10283,10 @@
         <v>0.42553200000000002</v>
       </c>
       <c r="G151" s="6">
-        <v>2.0833000000000001E-2</v>
+        <v>1.3687E-2</v>
       </c>
       <c r="H151" s="6">
-        <v>0</v>
+        <v>7.1459999999999996E-3</v>
       </c>
       <c r="I151" s="6">
         <v>0.1</v>
@@ -10339,10 +10347,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G152" s="6">
-        <v>0</v>
+        <v>1.356E-3</v>
       </c>
       <c r="H152" s="6">
-        <v>0.1</v>
+        <v>9.8643999999999996E-2</v>
       </c>
       <c r="I152" s="6">
         <v>0.111111</v>
@@ -10403,10 +10411,10 @@
         <v>0.58571399999999996</v>
       </c>
       <c r="G153" s="6">
-        <v>0</v>
+        <v>1.583E-3</v>
       </c>
       <c r="H153" s="6">
-        <v>1.4085E-2</v>
+        <v>1.2501E-2</v>
       </c>
       <c r="I153" s="6">
         <v>0.1</v>
@@ -10467,10 +10475,10 @@
         <v>0</v>
       </c>
       <c r="G154" s="6">
-        <v>0</v>
+        <v>0.107584</v>
       </c>
       <c r="H154" s="6">
-        <v>0.25</v>
+        <v>0.35758400000000001</v>
       </c>
       <c r="I154" s="6">
         <v>0.33333299999999999</v>
@@ -10531,10 +10539,10 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="G155" s="6">
-        <v>0</v>
+        <v>2.3376000000000001E-2</v>
       </c>
       <c r="H155" s="6">
-        <v>5.2631999999999998E-2</v>
+        <v>2.9256000000000001E-2</v>
       </c>
       <c r="I155" s="6">
         <v>0.1</v>
@@ -10595,10 +10603,10 @@
         <v>0.75</v>
       </c>
       <c r="G156" s="6">
-        <v>7.6923000000000005E-2</v>
+        <v>9.5731999999999998E-2</v>
       </c>
       <c r="H156" s="6">
-        <v>0</v>
+        <v>1.8808999999999999E-2</v>
       </c>
       <c r="I156" s="6">
         <v>0.1</v>
@@ -10659,10 +10667,10 @@
         <v>0.54166700000000001</v>
       </c>
       <c r="G157" s="6">
-        <v>0</v>
+        <v>5.8869999999999999E-3</v>
       </c>
       <c r="H157" s="6">
-        <v>0.04</v>
+        <v>3.4112999999999997E-2</v>
       </c>
       <c r="I157" s="6">
         <v>0.1</v>
@@ -10723,10 +10731,10 @@
         <v>0.45454499999999998</v>
       </c>
       <c r="G158" s="6">
-        <v>8.3333000000000004E-2</v>
+        <v>6.6591999999999998E-2</v>
       </c>
       <c r="H158" s="6">
-        <v>0</v>
+        <v>1.6742E-2</v>
       </c>
       <c r="I158" s="6">
         <v>0.1</v>
@@ -10787,10 +10795,10 @@
         <v>0.2</v>
       </c>
       <c r="G159" s="6">
-        <v>0</v>
+        <v>4.9189999999999998E-3</v>
       </c>
       <c r="H159" s="6">
-        <v>0.16666700000000001</v>
+        <v>0.17158599999999999</v>
       </c>
       <c r="I159" s="6">
         <v>0.2</v>
@@ -10851,10 +10859,10 @@
         <v>0.59154899999999999</v>
       </c>
       <c r="G160" s="6">
-        <v>1.3889E-2</v>
+        <v>7.2560000000000003E-3</v>
       </c>
       <c r="H160" s="6">
-        <v>0</v>
+        <v>6.633E-3</v>
       </c>
       <c r="I160" s="6">
         <v>0.1</v>
@@ -10915,10 +10923,10 @@
         <v>0.41666700000000001</v>
       </c>
       <c r="G161" s="6">
-        <v>0</v>
+        <v>4.7590000000000002E-3</v>
       </c>
       <c r="H161" s="6">
-        <v>2.0407999999999999E-2</v>
+        <v>1.5649E-2</v>
       </c>
       <c r="I161" s="6">
         <v>0.1</v>
@@ -10979,10 +10987,10 @@
         <v>0.41666700000000001</v>
       </c>
       <c r="G162" s="6">
-        <v>0</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="H162" s="6">
-        <v>7.6923000000000005E-2</v>
+        <v>7.3447999999999999E-2</v>
       </c>
       <c r="I162" s="6">
         <v>0.1</v>
@@ -11043,10 +11051,10 @@
         <v>0.45833299999999999</v>
       </c>
       <c r="G163" s="6">
-        <v>0.04</v>
+        <v>2.7583E-2</v>
       </c>
       <c r="H163" s="6">
-        <v>0.08</v>
+        <v>6.7583000000000004E-2</v>
       </c>
       <c r="I163" s="6">
         <v>0.1</v>
@@ -11107,10 +11115,10 @@
         <v>0.466667</v>
       </c>
       <c r="G164" s="6">
-        <v>0</v>
+        <v>9.6039999999999997E-3</v>
       </c>
       <c r="H164" s="6">
-        <v>6.25E-2</v>
+        <v>5.2895999999999999E-2</v>
       </c>
       <c r="I164" s="6">
         <v>0.1</v>
@@ -11171,10 +11179,10 @@
         <v>0.67567600000000005</v>
       </c>
       <c r="G165" s="6">
-        <v>0</v>
+        <v>1.31E-3</v>
       </c>
       <c r="H165" s="6">
-        <v>2.6315999999999999E-2</v>
+        <v>2.7626000000000001E-2</v>
       </c>
       <c r="I165" s="6">
         <v>0.1</v>
@@ -11235,10 +11243,10 @@
         <v>0.47222199999999998</v>
       </c>
       <c r="G166" s="6">
-        <v>2.7026999999999999E-2</v>
+        <v>1.6028000000000001E-2</v>
       </c>
       <c r="H166" s="6">
-        <v>0</v>
+        <v>1.0999E-2</v>
       </c>
       <c r="I166" s="6">
         <v>0.1</v>
@@ -11299,10 +11307,10 @@
         <v>0.5</v>
       </c>
       <c r="G167" s="6">
-        <v>0</v>
+        <v>1.6995E-2</v>
       </c>
       <c r="H167" s="6">
-        <v>5.2631999999999998E-2</v>
+        <v>3.5636000000000001E-2</v>
       </c>
       <c r="I167" s="6">
         <v>0.1</v>
@@ -11363,10 +11371,10 @@
         <v>0.58333299999999999</v>
       </c>
       <c r="G168" s="6">
-        <v>0</v>
+        <v>9.2500000000000004E-4</v>
       </c>
       <c r="H168" s="6">
-        <v>1.3698999999999999E-2</v>
+        <v>1.4624E-2</v>
       </c>
       <c r="I168" s="6">
         <v>0.1</v>
@@ -11414,7 +11422,7 @@
       <c r="B169">
         <v>514292</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169">
@@ -11427,10 +11435,10 @@
         <v>0.57142899999999996</v>
       </c>
       <c r="G169" s="6">
-        <v>0</v>
+        <v>4.2556999999999998E-2</v>
       </c>
       <c r="H169" s="6">
-        <v>0.125</v>
+        <v>8.2443000000000002E-2</v>
       </c>
       <c r="I169" s="6">
         <v>0.14285700000000001</v>
@@ -11478,7 +11486,7 @@
       <c r="B170">
         <v>514282</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D170">
@@ -11491,10 +11499,10 @@
         <v>0.45454499999999998</v>
       </c>
       <c r="G170" s="6">
-        <v>0</v>
+        <v>1.451E-3</v>
       </c>
       <c r="H170" s="6">
-        <v>4.3478000000000003E-2</v>
+        <v>4.4928999999999997E-2</v>
       </c>
       <c r="I170" s="6">
         <v>0.1</v>
